--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: eCH-Standards</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
   </si>
   <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: eCH-Standards</t>
   </si>
   <si>
     <t/>
@@ -460,6 +460,9 @@
     <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
   </si>
   <si>
+    <t>eCH-0010: lastName</t>
+  </si>
+  <si>
     <t>XPN.1/FN.1</t>
   </si>
   <si>
@@ -467,9 +470,6 @@
   </si>
   <si>
     <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>eCH-0010: lastName</t>
   </si>
   <si>
     <t>HumanName.family.id</t>
@@ -556,6 +556,9 @@
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
+    <t>eCH-0010: firstName equivalent to callName of eCH-0011</t>
+  </si>
+  <si>
     <t>XPN.2 + XPN.3</t>
   </si>
   <si>
@@ -563,9 +566,6 @@
   </si>
   <si>
     <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>eCH-0010: firstName equivalent to callName of eCH-0011</t>
   </si>
   <si>
     <t>HumanName.given.id</t>
@@ -605,6 +605,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>eCH-0010: mrMrs, title</t>
+  </si>
+  <si>
     <t>XPN.5</t>
   </si>
   <si>
@@ -612,9 +615,6 @@
   </si>
   <si>
     <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>eCH-0010: mrMrs, title</t>
   </si>
   <si>
     <t>HumanName.prefix.id</t>
@@ -1036,10 +1036,10 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="24.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="117.37109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="117.37109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1266,16 +1266,16 @@
         <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1381,10 +1381,10 @@
         <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
         <v>78</v>
@@ -1495,10 +1495,10 @@
         <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>78</v>
@@ -1836,16 +1836,16 @@
         <v>128</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL7" t="s" s="2">
+      <c r="AM7" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM7" t="s" s="2">
+      <c r="AN7" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1952,13 +1952,13 @@
         <v>128</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2402,7 +2402,7 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2411,7 +2411,7 @@
         <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -2519,10 +2519,10 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3078,7 +3078,7 @@
         <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3087,7 +3087,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3195,10 +3195,10 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3748,7 +3748,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>107</v>
@@ -3757,10 +3757,10 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -3978,13 +3978,13 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4092,16 +4092,16 @@
         <v>128</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -629,7 +629,7 @@
     <t>salutationandtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-EN-qualifier}
+    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.2.0}
 </t>
   </si>
   <si>
@@ -1001,45 +1001,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.66796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.7421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="82.046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="22.015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.82421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="117.37109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="100.625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.56640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.25" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -360,7 +360,7 @@
     <t>CH ELM Extension: VCT Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the VCT Code.</t>
+    <t>This CH ELM extension enables to provide the VCT Code.</t>
   </si>
   <si>
     <t>HumanName.extension:hivcode</t>
@@ -376,7 +376,7 @@
     <t>CH ELM Extension: HIV Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the HIV Code.</t>
+    <t>This CH ELM extension enables to provide the HIV Code.</t>
   </si>
   <si>
     <t>HumanName.use</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
